--- a/data/case1/11/Q2_3.xlsx
+++ b/data/case1/11/Q2_3.xlsx
@@ -56,172 +56,172 @@
   <dimension ref="A1:A33"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.14642660646104844</v>
+        <v>0.21342162492258865</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.0059999999193536269</v>
+        <v>-0.0059999999655673264</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.0039999999322972712</v>
+        <v>-0.0039999999691193722</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.0079999998751052459</v>
+        <v>-0.0079999999436939362</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.0029999999356915552</v>
+        <v>-0.0029999999680452305</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.0019999999377713351</v>
+        <v>-0.0019999999656956646</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.0099999998329756146</v>
+        <v>-0.0099999999214390733</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.0099999998323725414</v>
+        <v>-0.0099999999202751155</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.0019999999381186129</v>
+        <v>-0.0019999999640503141</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.0019999999398834234</v>
+        <v>-0.0019999999637718702</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.0029999999268905952</v>
+        <v>-0.0029999999583401049</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.0034999999210372224</v>
+        <v>-0.0034999999555607175</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0034999999267739668</v>
+        <v>-0.0034999999562268513</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>0.02864092067227908</v>
+        <v>-0.0079999999318669524</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.00099999996074373598</v>
+        <v>0.020158417041494125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.0019999999464528351</v>
+        <v>-0.0019999999654389811</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0019999999447390948</v>
+        <v>-0.0019999999649336075</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.0039999999181175028</v>
+        <v>-0.0039999999536757258</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>0.0020384330693472563</v>
+        <v>-0.0039999999760631511</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.02145722074612344</v>
+        <v>-0.029596668024741035</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0039999999332165359</v>
+        <v>-0.0039999999702109434</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.0039999999327200442</v>
+        <v>-0.0039999999700262023</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.004999999914534925</v>
+        <v>-0.0049999999617593716</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.019999999710092808</v>
+        <v>-0.01999999987556933</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.019999999705891724</v>
+        <v>-0.019999999873957286</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.002499999931384167</v>
+        <v>-0.00249999996194461</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.0024999999297028452</v>
+        <v>-0.0076682339673705968</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.0019999999285555958</v>
+        <v>-0.0019999999572073435</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0069999998580119183</v>
+        <v>-0.0069999999252559064</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.059999999164536355</v>
+        <v>-0.059999999630198086</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.021403477801225534</v>
+        <v>-0.0069999999244281241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0099999998270803303</v>
+        <v>0.037966594268054266</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="0">
-        <v>0.029509783996770622</v>
+        <v>-0.018271729722421526</v>
       </c>
     </row>
   </sheetData>
